--- a/interivew/practice/Amazon.xlsx
+++ b/interivew/practice/Amazon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\workspace\prac\src\com\interivew\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="7540"/>
   </bookViews>
   <sheets>
     <sheet name="算法题" sheetId="1" r:id="rId1"/>
@@ -2139,6 +2139,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2174,6 +2191,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2328,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
